--- a/respostas_questionario/avaliacao2.xlsx
+++ b/respostas_questionario/avaliacao2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>Q1</t>
   </si>
@@ -140,16 +140,47 @@
     <t>Poder fazer ajustes pontuais a parâmetros em tempo real</t>
   </si>
   <si>
-    <t>Avaliar possibilidade de dividir tabs inferiores na vertical
-Possibilidade de criar sub-menu que se "esconde" para fazer os ajustes das tabs inferiores (aquecimento, parâmetros, outros...)
-Guardar histórico de linhas Gcode inseridas via MDI</t>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>A organização da informação e funcionalidades está customizada ao processo de impressão 3D, o facto de ter como primeiro bloco de informação aquela que é mais importante permite perceber mais facilmente em tempo real o que está a acontecer no processo.</t>
+  </si>
+  <si>
+    <t>Alguma falta de espaço nas tabs inferiores.</t>
+  </si>
+  <si>
+    <t>O modo de operação "Manual" permite facilitar o processo de manutenção do equipamento, por exemplo movendo os eixos para determinadas zonas de forma a ser possível aceder manualmente a outras.</t>
+  </si>
+  <si>
+    <t>O facto de ter como primeiro bloco de informação toda a informação mais relevante (eixos, velocidades e temperaturas) para um processo de impressão facilita uma compreensão dos parâmetros mais rápida e por sua vez uma atuação do operador também mais rápida.</t>
+  </si>
+  <si>
+    <t>1)Avaliar possibilidade de dividir tabs inferiores na vertical
+2)Possibilidade de criar sub-menu que se "esconde" para fazer os ajustes das tabs inferiores (aquecimento, parâmetros, outros...)
+3)Guardar histórico de linhas Gcode inseridas via MDI</t>
+  </si>
+  <si>
+    <t>1)Avaliar necessidade de ter botão de emergência na interface
+2)Caixa de texto para input de um valor (posição para onde queremos enviar o eixo) e o eixo move-se enquanto o botão do mesmo é pressionado (comportamento idêntico ao "Send To")
+3)Eixo C varia entre 0 e 360. O "0" será sempre ao início da máquina?
+4)Eixos XYZ em mm e eixos B e C em graus</t>
+  </si>
+  <si>
+    <t>1)Evitar o scroll, mas se necessário ter 1 scroll (pouco) também é viável.
+2)Tentar arranjar tabs inferiores de forma a organizar melhor a informação</t>
+  </si>
+  <si>
+    <t>1)Coluna Duração no Histórico.
+2)Para todas as velocidades: ter botão 100% para voltar á velocidade inicial após esta ter sido alterada durante a impressão.
+3)Jogo de cores (verde, vermelho, etc) nas informações que tenham atual vs desejada (temperaturas)
+4)Expandir linhas de código G (para 20, 25..) para verificar se é versão correta do ficheiro a executar, por exemplo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +191,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -213,19 +259,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,202 +567,265 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.42578125" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+    <col min="3" max="3" width="91.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="104" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -714,37 +834,55 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
